--- a/biology/Zoologie/Coquette_huppe-col/Coquette_huppe-col.xlsx
+++ b/biology/Zoologie/Coquette_huppe-col/Coquette_huppe-col.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophornis ornatus
 La Coquette huppe-col (Lophornis ornatus) est une espèce d’oiseaux de la famille des Trochilidae.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure 6,8 à 7 cm pour une masse de 2,3 à 2,8 g.
 Il a un bec rougeâtre, et un croupion vert avec une bande blanche
-Le mâle possède une longue huppe, et des touffes de plumes sur les joues qu'il ébouriffe lors des parades nuptiales[1].
+Le mâle possède une longue huppe, et des touffes de plumes sur les joues qu'il ébouriffe lors des parades nuptiales.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau consomme des arthropodes et du nectar. Il vole de fleur en fleur, volant sur place devant puis perçant la corolle avec son bec[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau consomme des arthropodes et du nectar. Il vole de fleur en fleur, volant sur place devant puis perçant la corolle avec son bec.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nid est construit par la femelle à la fourche d'une branche avec des plantes et des toiles d'araignée. Elle s'occupe des jeunes jusqu'à un mois et demi après leur envol[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nid est construit par la femelle à la fourche d'une branche avec des plantes et des toiles d'araignée. Elle s'occupe des jeunes jusqu'à un mois et demi après leur envol.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts tropicales et subtropicales humides de basses altitudes mais aussi dans les anciennes forêts fortement dégradées. Son aire de répartition s'étend sur le nord de l'Amérique du Sud, du Venezuela à l'ouest à la Guyane à l'est, et au nord du Brésil au sud. On la trouve également à Trinité-et-Tobago.
 </t>
@@ -638,7 +658,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>del Hoyo J., Elliott A. &amp; Sargatal J. (1999) Handbook of the Birds of the World, Volume 5, Barn-owls to Hummingbirds. BirdLife International, Lynx Edicions, Barcelona, 759 p.</t>
         </is>
